--- a/WebContent/resources/excel/report.xlsx
+++ b/WebContent/resources/excel/report.xlsx
@@ -27,9 +27,6 @@
     <t>Odpowiedź</t>
   </si>
   <si>
-    <t>Categoria pytania</t>
-  </si>
-  <si>
     <t>${answers.answer}</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>${patient.occupation}</t>
+  </si>
+  <si>
+    <t>Kategoria pytania</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
   <dimension ref="A2:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -444,64 +444,64 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -509,7 +509,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="5"/>
     </row>
@@ -521,7 +521,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.5">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
